--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail1 Features.xlsx
@@ -4371,7 +4371,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.425319739730907</v>
+        <v>1.341067040265011</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.004929006236114</v>
@@ -4460,7 +4460,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.429842550703205</v>
+        <v>1.342159549453334</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.017308576985342</v>
@@ -4549,7 +4549,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.47700009335065</v>
+        <v>1.384065492989612</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.921761777498329</v>
@@ -4638,7 +4638,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.482425126277174</v>
+        <v>1.391558301634417</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.991372058826557</v>
@@ -4727,7 +4727,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.526349846351343</v>
+        <v>1.42444534757066</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.915625297043475</v>
@@ -4816,7 +4816,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.567881016708974</v>
+        <v>1.455876294532962</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.658432411183052</v>
@@ -4905,7 +4905,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.594000598145788</v>
+        <v>1.502538018063633</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.845404221247098</v>
@@ -4994,7 +4994,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.60253805600179</v>
+        <v>1.508562180464623</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.266606603750402</v>
@@ -5083,7 +5083,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.590539944241168</v>
+        <v>1.496996083160263</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.109936443512427</v>
@@ -5172,7 +5172,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.595234520545187</v>
+        <v>1.503706987506128</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.290593436358001</v>
@@ -5261,7 +5261,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.615680983326074</v>
+        <v>1.526016484815136</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.05523313766873</v>
@@ -5350,7 +5350,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.62608384662207</v>
+        <v>1.529907783453368</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.426533284890049</v>
@@ -5439,7 +5439,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.629965983686146</v>
+        <v>1.530713267237659</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.313850913706229</v>
@@ -5528,7 +5528,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.638576147999161</v>
+        <v>1.533348853896226</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.367091159168659</v>
@@ -5617,7 +5617,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.639577584751623</v>
+        <v>1.540880309582753</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.261491108055545</v>
@@ -5706,7 +5706,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.634470145023192</v>
+        <v>1.542660245860907</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.863519180666647</v>
@@ -5795,7 +5795,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.614966230542412</v>
+        <v>1.549500530002373</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.842207245154575</v>
@@ -5884,7 +5884,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.651706672739694</v>
+        <v>1.555688371391523</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.927707747446997</v>
@@ -5973,7 +5973,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.573620210536501</v>
+        <v>1.495555494079522</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.004819235032282</v>
@@ -6062,7 +6062,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571409186305235</v>
+        <v>1.496382753689199</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.012743371304419</v>
@@ -6151,7 +6151,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.56843476642422</v>
+        <v>1.489624146441037</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.029133104637664</v>
@@ -6240,7 +6240,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.56922748581192</v>
+        <v>1.4881492828498</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.003343473294088</v>
@@ -6329,7 +6329,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.568263205954583</v>
+        <v>1.486530528306413</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.033125452231137</v>
@@ -6418,7 +6418,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.578615519800264</v>
+        <v>1.496954854795693</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.997933154992664</v>
@@ -6507,7 +6507,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.584696494455363</v>
+        <v>1.502990164185684</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.991274313667209</v>
@@ -6596,7 +6596,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.582997756206864</v>
+        <v>1.500928661594491</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.012945511656765</v>
@@ -6685,7 +6685,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.577856068806751</v>
+        <v>1.506588769636813</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.002975253024894</v>
@@ -6774,7 +6774,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.580376016674969</v>
+        <v>1.507746149655794</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.997202029603186</v>
@@ -6863,7 +6863,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.57559015710338</v>
+        <v>1.504975359794686</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.010830519032447</v>
@@ -6952,7 +6952,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.573582925431194</v>
+        <v>1.502457045894799</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.00322855664546</v>
@@ -7041,7 +7041,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.577584394097205</v>
+        <v>1.503899417844833</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.022679937083681</v>
@@ -7130,7 +7130,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.590408655100834</v>
+        <v>1.508934733417913</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.040930275964067</v>
@@ -7219,7 +7219,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.601451862701762</v>
+        <v>1.521679162091006</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.915790441648811</v>
@@ -7308,7 +7308,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.636515808146603</v>
+        <v>1.565051290441356</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.930143143700295</v>
@@ -7397,7 +7397,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.633879742761858</v>
+        <v>1.566465629540167</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.088214990015475</v>
@@ -7486,7 +7486,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.646075335134344</v>
+        <v>1.580383181208441</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.070216689532936</v>
@@ -7575,7 +7575,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.647050302026214</v>
+        <v>1.580523275140811</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.949363699171491</v>
@@ -7664,7 +7664,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.652491025966473</v>
+        <v>1.583171684044846</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.055901915742232</v>
@@ -7753,7 +7753,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.653833850586345</v>
+        <v>1.584937109966881</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.009974769823581</v>
@@ -7842,7 +7842,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.658627780914138</v>
+        <v>1.582795900216902</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.184611655096569</v>
@@ -7931,7 +7931,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.647771841903276</v>
+        <v>1.581188772046228</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.254644025573641</v>
@@ -8020,7 +8020,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.656319777899333</v>
+        <v>1.583810840685618</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.174200244924206</v>
@@ -8306,7 +8306,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.415193402858493</v>
+        <v>1.321374661857406</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.041667339588878</v>
@@ -8395,7 +8395,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.422666833534028</v>
+        <v>1.325266911937545</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.063286747203871</v>
@@ -8484,7 +8484,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.463796172690306</v>
+        <v>1.360646159986288</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.941011908591486</v>
@@ -8573,7 +8573,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.463411478041185</v>
+        <v>1.364680657847781</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.018338155038804</v>
@@ -8662,7 +8662,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.484798871189693</v>
+        <v>1.380431824055343</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.982608488264394</v>
@@ -8751,7 +8751,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.514238862974835</v>
+        <v>1.402031498293174</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.674636598549668</v>
@@ -8840,7 +8840,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.524690357043052</v>
+        <v>1.431829243256242</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.240266137109429</v>
@@ -8929,7 +8929,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.530190357782292</v>
+        <v>1.434890651412248</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.271692157088852</v>
@@ -9018,7 +9018,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.548177397453629</v>
+        <v>1.437518070085237</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.40192348021778</v>
@@ -9107,7 +9107,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.5413243200369</v>
+        <v>1.430562729690973</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.986236381424108</v>
@@ -9196,7 +9196,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.555006074812113</v>
+        <v>1.439834929908423</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.975842171939681</v>
@@ -9285,7 +9285,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.557432624829094</v>
+        <v>1.434637873405296</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.730286481325929</v>
@@ -9374,7 +9374,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.549760320242422</v>
+        <v>1.42766338146835</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.537466316878523</v>
@@ -9463,7 +9463,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.567671327326066</v>
+        <v>1.442070414053708</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.821715449832239</v>
@@ -9552,7 +9552,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.570181857115275</v>
+        <v>1.448713598449486</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.5043689594995</v>
@@ -9641,7 +9641,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.567777080818275</v>
+        <v>1.453811734805852</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.593108166426901</v>
@@ -9730,7 +9730,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.526414536206586</v>
+        <v>1.449300002954517</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.329586382362267</v>
@@ -9819,7 +9819,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.573592126152018</v>
+        <v>1.481593764750335</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.955814883009107</v>
@@ -9908,7 +9908,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.520375517557878</v>
+        <v>1.44168673507766</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.995055274150763</v>
@@ -9997,7 +9997,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.526926084630765</v>
+        <v>1.448936157839944</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.022250715038509</v>
@@ -10086,7 +10086,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.524937382598419</v>
+        <v>1.442362714315269</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.027000782346882</v>
@@ -10175,7 +10175,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.532668070377881</v>
+        <v>1.447733336331159</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.023812460121399</v>
@@ -10264,7 +10264,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.536055508772203</v>
+        <v>1.451874125985478</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.049765545758097</v>
@@ -10353,7 +10353,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.54516464544844</v>
+        <v>1.458044509139642</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.011531117376087</v>
@@ -10442,7 +10442,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.554770278207572</v>
+        <v>1.470963700996579</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.032248959790961</v>
@@ -10531,7 +10531,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.558244910261072</v>
+        <v>1.475729832233053</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.03275074980841</v>
@@ -10620,7 +10620,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.556851261765154</v>
+        <v>1.481942745002722</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.038492933115671</v>
@@ -10709,7 +10709,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.56739303323737</v>
+        <v>1.491680979074912</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.055168664066661</v>
@@ -10798,7 +10798,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.566540100753309</v>
+        <v>1.494428667812278</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.04914345621761</v>
@@ -10887,7 +10887,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.564327028417491</v>
+        <v>1.492904238621194</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.013880550762032</v>
@@ -10976,7 +10976,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.576368554591851</v>
+        <v>1.501672252944995</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.042620153661222</v>
@@ -11065,7 +11065,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.608555069167492</v>
+        <v>1.517368401361914</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.057445702371558</v>
@@ -11154,7 +11154,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.626884573671944</v>
+        <v>1.527981972398958</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.976157864948923</v>
@@ -11243,7 +11243,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.667309658869251</v>
+        <v>1.564677903979458</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.423573911898392</v>
@@ -11332,7 +11332,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.670240944351819</v>
+        <v>1.571099948271983</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.620468519811993</v>
@@ -11421,7 +11421,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.680052835499697</v>
+        <v>1.589952352774717</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.094738170463728</v>
@@ -11510,7 +11510,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.674375874224406</v>
+        <v>1.581957682333856</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.419072425891649</v>
@@ -11599,7 +11599,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.675242376740909</v>
+        <v>1.577917067179349</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.512109139560218</v>
@@ -11688,7 +11688,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.69398511608188</v>
+        <v>1.599361234837566</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.11571127990846</v>
@@ -11777,7 +11777,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.690350636075842</v>
+        <v>1.588500746989277</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.997036956259728</v>
@@ -11866,7 +11866,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.682158951468515</v>
+        <v>1.588011698902036</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.011198186793602</v>
@@ -11955,7 +11955,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.689434770701391</v>
+        <v>1.593119931528485</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.397814391043601</v>
@@ -12241,7 +12241,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.478898167840582</v>
+        <v>1.419235717392547</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.018388758727072</v>
@@ -12330,7 +12330,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.488273157402811</v>
+        <v>1.423418530949654</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.023854786602897</v>
@@ -12419,7 +12419,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.551055197444824</v>
+        <v>1.474444273246715</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.936303706780191</v>
@@ -12508,7 +12508,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.539698752303176</v>
+        <v>1.468906888238436</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.966753734196514</v>
@@ -12597,7 +12597,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.570628183535562</v>
+        <v>1.493370860973336</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.97564299530108</v>
@@ -12686,7 +12686,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.614118014928217</v>
+        <v>1.52897262722048</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.68374409129552</v>
@@ -12775,7 +12775,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.643560441403175</v>
+        <v>1.581409561495906</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.891386579940888</v>
@@ -12864,7 +12864,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.654508813171944</v>
+        <v>1.58643631038696</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.921154530484032</v>
@@ -12953,7 +12953,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.648617405089635</v>
+        <v>1.575747051991586</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.275562682042802</v>
@@ -13042,7 +13042,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.640718416498118</v>
+        <v>1.560885163837083</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.176464892526258</v>
@@ -13131,7 +13131,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.662311475251761</v>
+        <v>1.579592752834324</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.046679622728179</v>
@@ -13220,7 +13220,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.668244861844131</v>
+        <v>1.578510177155751</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.635297350947102</v>
@@ -13309,7 +13309,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.659695063786284</v>
+        <v>1.569042106532305</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.484664509613681</v>
@@ -13398,7 +13398,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.670732949050965</v>
+        <v>1.573085523524575</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.190568737599127</v>
@@ -13487,7 +13487,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.675083699783358</v>
+        <v>1.579368906602013</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.166849051265544</v>
@@ -13576,7 +13576,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.65971262641555</v>
+        <v>1.565547303776501</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.562343045650223</v>
@@ -13665,7 +13665,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.639529432491371</v>
+        <v>1.565438247923471</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.517636456861163</v>
@@ -13754,7 +13754,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.676285384794378</v>
+        <v>1.575045719314364</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.92812589318809</v>
@@ -13843,7 +13843,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.593675811866909</v>
+        <v>1.511163302651235</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.020264278469767</v>
@@ -13932,7 +13932,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.59140056274726</v>
+        <v>1.510642682315295</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.029859820420284</v>
@@ -14021,7 +14021,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.583734267155119</v>
+        <v>1.505256302948494</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.019487326023719</v>
@@ -14110,7 +14110,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.592273294866393</v>
+        <v>1.512019500945066</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.017886620996993</v>
@@ -14199,7 +14199,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.592472152074184</v>
+        <v>1.512505665969911</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.033447320674089</v>
@@ -14288,7 +14288,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.598644706421632</v>
+        <v>1.52425446576132</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.012466329847237</v>
@@ -14377,7 +14377,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.60074197685712</v>
+        <v>1.530029039177393</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.008653137292105</v>
@@ -14466,7 +14466,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.600001754857755</v>
+        <v>1.53171728274864</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.029764036550076</v>
@@ -14555,7 +14555,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.594086790944144</v>
+        <v>1.533102243391571</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.006557559869958</v>
@@ -14644,7 +14644,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.600639528150055</v>
+        <v>1.538831329331503</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.998328169656795</v>
@@ -14733,7 +14733,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.598044004342575</v>
+        <v>1.539247229676522</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.007660976745224</v>
@@ -14822,7 +14822,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.599396208066162</v>
+        <v>1.538945806370569</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.012073336841706</v>
@@ -14911,7 +14911,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.610482427183714</v>
+        <v>1.544094273605179</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.02845169839839</v>
@@ -15000,7 +15000,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.618438711728585</v>
+        <v>1.547821450727142</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.028468069151601</v>
@@ -15089,7 +15089,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638033916892076</v>
+        <v>1.571756076218721</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.939340072000358</v>
@@ -15178,7 +15178,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.689756054264713</v>
+        <v>1.634655394762818</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.006776178813783</v>
@@ -15267,7 +15267,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.706517460063356</v>
+        <v>1.643428803328752</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.936664439760325</v>
@@ -15356,7 +15356,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.723231828164647</v>
+        <v>1.659525765271172</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.180521217432232</v>
@@ -15445,7 +15445,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.719390991304397</v>
+        <v>1.654700343595207</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.045882324229544</v>
@@ -15534,7 +15534,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.723412393970218</v>
+        <v>1.654262689953963</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.015681102397601</v>
@@ -15623,7 +15623,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.737812774612029</v>
+        <v>1.659876638563464</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.963664270691106</v>
@@ -15712,7 +15712,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.744372851292704</v>
+        <v>1.652871891851543</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.19961124576296</v>
@@ -15801,7 +15801,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.728292783231535</v>
+        <v>1.641305597812714</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.17973380793139</v>
@@ -15890,7 +15890,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.732153359593415</v>
+        <v>1.641963966970204</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.024532723939604</v>
@@ -16176,7 +16176,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.584918725040047</v>
+        <v>1.52315908374572</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.494391144463406</v>
@@ -16265,7 +16265,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.596096226508176</v>
+        <v>1.535190604137291</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.364749561050172</v>
@@ -16354,7 +16354,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.617107346222312</v>
+        <v>1.560385264262658</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.5543368849296</v>
@@ -16443,7 +16443,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.608116437236645</v>
+        <v>1.560805084372465</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.425560009524886</v>
@@ -16532,7 +16532,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.613552972590155</v>
+        <v>1.571162839831078</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.345341557641443</v>
@@ -16621,7 +16621,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.634990847775604</v>
+        <v>1.589614548446252</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.071750339291963</v>
@@ -16710,7 +16710,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.641475989021114</v>
+        <v>1.608506812537887</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.076533495765067</v>
@@ -16799,7 +16799,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.643469661833085</v>
+        <v>1.60624971664397</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.189921638273485</v>
@@ -16888,7 +16888,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.625111255926947</v>
+        <v>1.584068084594786</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.88855904558226</v>
@@ -16977,7 +16977,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.609018550384943</v>
+        <v>1.569561350816515</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.07144910984942</v>
@@ -17066,7 +17066,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.630060945901621</v>
+        <v>1.591747576743244</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.758424302279342</v>
@@ -17155,7 +17155,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.632396381598176</v>
+        <v>1.589208307832516</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.949302990727163</v>
@@ -17244,7 +17244,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.625709280966928</v>
+        <v>1.581124503157749</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.66677809368705</v>
@@ -17333,7 +17333,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.636725134292912</v>
+        <v>1.594759622898899</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.952614298405193</v>
@@ -17422,7 +17422,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.642790175240739</v>
+        <v>1.598844490516514</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.665047407138444</v>
@@ -17511,7 +17511,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.640339166300767</v>
+        <v>1.604150355953152</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.669937239649359</v>
@@ -17600,7 +17600,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.617566820788243</v>
+        <v>1.598127630368848</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.704136891583534</v>
@@ -17689,7 +17689,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.637773483084378</v>
+        <v>1.605676949704355</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.383272289632091</v>
@@ -17778,7 +17778,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.61510418257848</v>
+        <v>1.58965723271798</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.337006396798309</v>
@@ -17867,7 +17867,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.631503112033155</v>
+        <v>1.608576090564676</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.400057034461693</v>
@@ -17956,7 +17956,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.635113782618132</v>
+        <v>1.613227369991427</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.473872644350807</v>
@@ -18045,7 +18045,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.651817495981851</v>
+        <v>1.624922750704747</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.42408002228728</v>
@@ -18134,7 +18134,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.654831748362989</v>
+        <v>1.629038087934501</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.472541573791617</v>
@@ -18223,7 +18223,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.671058132450618</v>
+        <v>1.642116094716817</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.38523897811343</v>
@@ -18312,7 +18312,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.680392010821119</v>
+        <v>1.653184732698733</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.479730858122156</v>
@@ -18401,7 +18401,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.681536170196988</v>
+        <v>1.652240292975426</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.452955167142443</v>
@@ -18490,7 +18490,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.682702111751897</v>
+        <v>1.660094512211258</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.515986002699984</v>
@@ -18579,7 +18579,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.696244273193153</v>
+        <v>1.671875724015726</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.577586943854861</v>
@@ -18668,7 +18668,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.698949934641677</v>
+        <v>1.67056208311755</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.567524677438176</v>
@@ -18757,7 +18757,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.699399363691207</v>
+        <v>1.670740824510649</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.525934832402167</v>
@@ -18846,7 +18846,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.711387475235127</v>
+        <v>1.678641900530838</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.519411094020523</v>
@@ -18935,7 +18935,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.739899052174732</v>
+        <v>1.695559860690692</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.590773549033336</v>
@@ -19024,7 +19024,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.750213624505599</v>
+        <v>1.706720978937315</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.482667791407332</v>
@@ -19113,7 +19113,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.764163812264804</v>
+        <v>1.714658591367574</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.198521993897086</v>
@@ -19202,7 +19202,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.76747234813136</v>
+        <v>1.711105828479031</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.919201713982846</v>
@@ -19291,7 +19291,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.768624698993331</v>
+        <v>1.714911510110927</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.134918902488464</v>
@@ -19380,7 +19380,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.766099219153739</v>
+        <v>1.707505464191095</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.603850901457939</v>
@@ -19469,7 +19469,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.765954405055287</v>
+        <v>1.698159332902498</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.402663542087275</v>
@@ -19558,7 +19558,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.791458481960889</v>
+        <v>1.723115962347083</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.185537405425142</v>
@@ -19647,7 +19647,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.802721227592058</v>
+        <v>1.734437026232859</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.187246099981386</v>
@@ -19736,7 +19736,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.786455014782326</v>
+        <v>1.730658287375637</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.288254611717705</v>
@@ -19825,7 +19825,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.794549724891704</v>
+        <v>1.740632778456001</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.810150024768279</v>
@@ -20111,7 +20111,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.438587654319316</v>
+        <v>1.352202420036108</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.998179731573851</v>
@@ -20200,7 +20200,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.445788001699048</v>
+        <v>1.352752865938637</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.989067344615805</v>
@@ -20289,7 +20289,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.526393375275341</v>
+        <v>1.413818545985692</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.941780447633247</v>
@@ -20378,7 +20378,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.530573326837815</v>
+        <v>1.421224998323834</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.043227272273168</v>
@@ -20467,7 +20467,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.564933386682177</v>
+        <v>1.447414426624586</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.004486863195053</v>
@@ -20556,7 +20556,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.604673780798747</v>
+        <v>1.473941738841054</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.703967736867755</v>
@@ -20645,7 +20645,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.638870311352556</v>
+        <v>1.524897996360489</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.91586779852254</v>
@@ -20734,7 +20734,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.647772524562038</v>
+        <v>1.532235245561991</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.322248850918893</v>
@@ -20823,7 +20823,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.616996526670807</v>
+        <v>1.506489402095348</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.346249663812664</v>
@@ -20912,7 +20912,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.60937616457719</v>
+        <v>1.506883309115561</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.15602351885454</v>
@@ -21001,7 +21001,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.624722186596113</v>
+        <v>1.5260359774564</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.024437247224228</v>
@@ -21090,7 +21090,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.622900059246029</v>
+        <v>1.519490057291929</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.981131933175481</v>
@@ -21179,7 +21179,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.627611241220912</v>
+        <v>1.520777609340366</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.019459198402846</v>
@@ -21268,7 +21268,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.634104433303465</v>
+        <v>1.524057992659045</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.257683694887418</v>
@@ -21357,7 +21357,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.630858894014495</v>
+        <v>1.528035675163479</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.224057745493422</v>
@@ -21446,7 +21446,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.624246014696114</v>
+        <v>1.531698934657354</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.994153097813464</v>
@@ -21535,7 +21535,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.607782269375526</v>
+        <v>1.539274928048541</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.896085128991069</v>
@@ -21624,7 +21624,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.648651362602211</v>
+        <v>1.56186219230828</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.987916591848018</v>
@@ -21713,7 +21713,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.587075168188506</v>
+        <v>1.513736969821806</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.049980594730001</v>
@@ -21802,7 +21802,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.587668845380741</v>
+        <v>1.518400850244218</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.093485391868093</v>
@@ -21891,7 +21891,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.581775942552906</v>
+        <v>1.512201097861844</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.1152169541826</v>
@@ -21980,7 +21980,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.582944827623346</v>
+        <v>1.511657715198005</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.101325929195455</v>
@@ -22069,7 +22069,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.585315525184552</v>
+        <v>1.510874630258299</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.121850220033254</v>
@@ -22158,7 +22158,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.603645455804957</v>
+        <v>1.527126273118705</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.089109914254782</v>
@@ -22247,7 +22247,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.614532691066001</v>
+        <v>1.535896729389012</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.100964012258987</v>
@@ -22336,7 +22336,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.617365580882602</v>
+        <v>1.537096825529509</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.113014674740662</v>
@@ -22425,7 +22425,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.617449422634493</v>
+        <v>1.545852384943362</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.112955847161177</v>
@@ -22514,7 +22514,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621352482906389</v>
+        <v>1.549269062837155</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.129362037377254</v>
@@ -22603,7 +22603,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.617835350235042</v>
+        <v>1.546153528110412</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.116617270284568</v>
@@ -22692,7 +22692,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.618013632315339</v>
+        <v>1.545345996963347</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.091924516816662</v>
@@ -22781,7 +22781,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.627054162263949</v>
+        <v>1.55139851836687</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.143446963940606</v>
@@ -22870,7 +22870,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.641931523829689</v>
+        <v>1.558390242722718</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.143284154634176</v>
@@ -22959,7 +22959,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.666076080384077</v>
+        <v>1.572874644403899</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.923865273666056</v>
@@ -23048,7 +23048,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.709520606750548</v>
+        <v>1.613873904362636</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.534656467302907</v>
@@ -23137,7 +23137,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.721182468381214</v>
+        <v>1.622365145115179</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.539328157149968</v>
@@ -23226,7 +23226,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.741251149845807</v>
+        <v>1.646776285238726</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.731927138662048</v>
@@ -23315,7 +23315,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.744916683153122</v>
+        <v>1.65072345879663</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.740007611712921</v>
@@ -23404,7 +23404,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.745091307058036</v>
+        <v>1.651185365851895</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.298522381091004</v>
@@ -23493,7 +23493,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.747057169319557</v>
+        <v>1.661119232065548</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.819114173562935</v>
@@ -23582,7 +23582,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.737844801223874</v>
+        <v>1.64298976154656</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.770534385327814</v>
@@ -23671,7 +23671,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.731920815413047</v>
+        <v>1.648353920200728</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.242299953637722</v>
@@ -23760,7 +23760,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.743898063206754</v>
+        <v>1.66150462591437</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.547001742722032</v>
@@ -24046,7 +24046,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.412946059169363</v>
+        <v>1.396687260050715</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.368607475324173</v>
@@ -24135,7 +24135,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.433383403492024</v>
+        <v>1.41278106809067</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.345464734296321</v>
@@ -24224,7 +24224,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.465110624026885</v>
+        <v>1.447669534221255</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.327213282506149</v>
@@ -24313,7 +24313,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.449569968258919</v>
+        <v>1.435901060017531</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.391200132835851</v>
@@ -24402,7 +24402,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.445478558978681</v>
+        <v>1.432038120753865</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.280395035487397</v>
@@ -24491,7 +24491,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.45990336015262</v>
+        <v>1.446342802071573</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.984468236563089</v>
@@ -24580,7 +24580,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.445659929067708</v>
+        <v>1.451967433544425</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.442269376047195</v>
@@ -24669,7 +24669,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.443107826658145</v>
+        <v>1.449454497712762</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.470670685227003</v>
@@ -24758,7 +24758,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.432676671534245</v>
+        <v>1.436507632167314</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.424246758725875</v>
@@ -24847,7 +24847,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.430083102565332</v>
+        <v>1.43434894101</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.366472868072457</v>
@@ -24936,7 +24936,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.456326144614475</v>
+        <v>1.461300840770233</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.249147592752422</v>
@@ -25025,7 +25025,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.457693352541123</v>
+        <v>1.460127900207622</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.336381876170644</v>
@@ -25114,7 +25114,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.442416023909606</v>
+        <v>1.44085053422848</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.162630414805525</v>
@@ -25203,7 +25203,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.457965124312274</v>
+        <v>1.464032109352607</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.357242373913202</v>
@@ -25292,7 +25292,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.484877525572326</v>
+        <v>1.490751491867869</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.216030569089281</v>
@@ -25381,7 +25381,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.467665810738352</v>
+        <v>1.482818482099585</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.4121463963078</v>
@@ -25470,7 +25470,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.445143480614735</v>
+        <v>1.459313288779781</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.267855834909537</v>
@@ -25559,7 +25559,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.483652455044519</v>
+        <v>1.476984976510948</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.121272038828346</v>
@@ -25648,7 +25648,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.478268407382059</v>
+        <v>1.471952000726783</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.136399989358666</v>
@@ -25737,7 +25737,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.500859308710483</v>
+        <v>1.493754902686292</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.167817504446063</v>
@@ -25826,7 +25826,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.497717457586668</v>
+        <v>1.493280504071997</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.19717221555539</v>
@@ -25915,7 +25915,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.522743940442506</v>
+        <v>1.51771422144382</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.192856989386935</v>
@@ -26004,7 +26004,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.523764637929849</v>
+        <v>1.518396296669885</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.196131221997216</v>
@@ -26093,7 +26093,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.538743978520422</v>
+        <v>1.527786050288851</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.16750807915025</v>
@@ -26182,7 +26182,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.537503920474071</v>
+        <v>1.532836236410704</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.219854678712315</v>
@@ -26271,7 +26271,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.53874703462626</v>
+        <v>1.529883482821685</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.188500743885223</v>
@@ -26360,7 +26360,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.539048840052949</v>
+        <v>1.532984728370748</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.261515628818639</v>
@@ -26449,7 +26449,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.563869001800045</v>
+        <v>1.554433044598649</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.225647980078519</v>
@@ -26538,7 +26538,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.551385477369193</v>
+        <v>1.540193408363465</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.223561474199164</v>
@@ -26627,7 +26627,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.54362421866861</v>
+        <v>1.534256590585938</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.185656028372252</v>
@@ -26716,7 +26716,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.567845899221377</v>
+        <v>1.55256300981637</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.228851399360468</v>
@@ -26805,7 +26805,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.599470637285442</v>
+        <v>1.58266885858455</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.231459441477506</v>
@@ -26894,7 +26894,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.594357684694945</v>
+        <v>1.588836972191975</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.26487712512165</v>
@@ -26983,7 +26983,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.595326466620387</v>
+        <v>1.600087841305433</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.452915307438339</v>
@@ -27072,7 +27072,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.611674062702092</v>
+        <v>1.610940148253339</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.253521244640667</v>
@@ -27161,7 +27161,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.612117465494868</v>
+        <v>1.613868915622775</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.491853941718626</v>
@@ -27250,7 +27250,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.59990002950513</v>
+        <v>1.597762376840227</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.560330109636828</v>
@@ -27339,7 +27339,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.603272039156276</v>
+        <v>1.59933303093791</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.512899335676577</v>
@@ -27428,7 +27428,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.640471352030003</v>
+        <v>1.63345115641318</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.317290485637602</v>
@@ -27517,7 +27517,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.652749661649454</v>
+        <v>1.641457725285886</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.436813065855078</v>
@@ -27606,7 +27606,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.611632060931244</v>
+        <v>1.608609222624569</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.477475172537</v>
@@ -27695,7 +27695,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.620085516380811</v>
+        <v>1.615506121434323</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.537315410693786</v>
